--- a/Code/Results/Cases/Case_4_159/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_159/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.019453686358495</v>
+        <v>1.044776057161285</v>
       </c>
       <c r="D2">
-        <v>1.037928657889838</v>
+        <v>1.052802739134675</v>
       </c>
       <c r="E2">
-        <v>1.037125561032307</v>
+        <v>1.058129198154092</v>
       </c>
       <c r="F2">
-        <v>1.043850197048346</v>
+        <v>1.065014483352743</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.051320855086262</v>
+        <v>1.043288728936267</v>
       </c>
       <c r="J2">
-        <v>1.041067711624352</v>
+        <v>1.049839333033683</v>
       </c>
       <c r="K2">
-        <v>1.048883714358045</v>
+        <v>1.055550463193599</v>
       </c>
       <c r="L2">
-        <v>1.048090817510993</v>
+        <v>1.060862276782518</v>
       </c>
       <c r="M2">
-        <v>1.054730649001401</v>
+        <v>1.067728865395869</v>
       </c>
       <c r="N2">
-        <v>1.017386865390749</v>
+        <v>1.020477565263184</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.023391819957314</v>
+        <v>1.045622705547721</v>
       </c>
       <c r="D3">
-        <v>1.040959565446938</v>
+        <v>1.053480837374018</v>
       </c>
       <c r="E3">
-        <v>1.04064232624428</v>
+        <v>1.058939523776214</v>
       </c>
       <c r="F3">
-        <v>1.047478411648129</v>
+        <v>1.065852047513001</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.052434228750301</v>
+        <v>1.043483400266941</v>
       </c>
       <c r="J3">
-        <v>1.043264494842243</v>
+        <v>1.050333882869711</v>
       </c>
       <c r="K3">
-        <v>1.051093870335479</v>
+        <v>1.056041825576576</v>
       </c>
       <c r="L3">
-        <v>1.050780306213912</v>
+        <v>1.061486583960566</v>
       </c>
       <c r="M3">
-        <v>1.057537806561036</v>
+        <v>1.068381690695944</v>
       </c>
       <c r="N3">
-        <v>1.018130484038871</v>
+        <v>1.020643677651902</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.025894677100197</v>
+        <v>1.046171274775451</v>
       </c>
       <c r="D4">
-        <v>1.042888732315083</v>
+        <v>1.053920248417721</v>
       </c>
       <c r="E4">
-        <v>1.042882639516048</v>
+        <v>1.059464928762126</v>
       </c>
       <c r="F4">
-        <v>1.049789727749372</v>
+        <v>1.066395116232679</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.0531338763476</v>
+        <v>1.043608534210297</v>
       </c>
       <c r="J4">
-        <v>1.044658413415883</v>
+        <v>1.050653942765955</v>
       </c>
       <c r="K4">
-        <v>1.052495682394673</v>
+        <v>1.056359723662849</v>
       </c>
       <c r="L4">
-        <v>1.05248965588965</v>
+        <v>1.061890966326332</v>
       </c>
       <c r="M4">
-        <v>1.059322195347051</v>
+        <v>1.068804569305417</v>
       </c>
       <c r="N4">
-        <v>1.018602161587966</v>
+        <v>1.020751134823777</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.026936348170352</v>
+        <v>1.046402066638906</v>
       </c>
       <c r="D5">
-        <v>1.043692293241872</v>
+        <v>1.05410512730413</v>
       </c>
       <c r="E5">
-        <v>1.043816273618192</v>
+        <v>1.059686063294328</v>
       </c>
       <c r="F5">
-        <v>1.050752953014249</v>
+        <v>1.066623685777905</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.053423127658083</v>
+        <v>1.043660940757386</v>
       </c>
       <c r="J5">
-        <v>1.045237990310389</v>
+        <v>1.050788507367832</v>
       </c>
       <c r="K5">
-        <v>1.053078393324453</v>
+        <v>1.056493355593599</v>
       </c>
       <c r="L5">
-        <v>1.053201060863482</v>
+        <v>1.062061066193609</v>
       </c>
       <c r="M5">
-        <v>1.060064890145034</v>
+        <v>1.068982455236444</v>
       </c>
       <c r="N5">
-        <v>1.018798237055624</v>
+        <v>1.020796302476157</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.027110641280327</v>
+        <v>1.046440827725802</v>
       </c>
       <c r="D6">
-        <v>1.043826783043455</v>
+        <v>1.054136178054469</v>
       </c>
       <c r="E6">
-        <v>1.043972561496538</v>
+        <v>1.059723207610566</v>
       </c>
       <c r="F6">
-        <v>1.050914194448455</v>
+        <v>1.066662079002191</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.053471410691036</v>
+        <v>1.043669728312234</v>
       </c>
       <c r="J6">
-        <v>1.045334931735318</v>
+        <v>1.050811101988973</v>
       </c>
       <c r="K6">
-        <v>1.053175850083976</v>
+        <v>1.056515792214759</v>
       </c>
       <c r="L6">
-        <v>1.053320091981036</v>
+        <v>1.062089632383065</v>
       </c>
       <c r="M6">
-        <v>1.060189160108149</v>
+        <v>1.069012329338639</v>
       </c>
       <c r="N6">
-        <v>1.018831030493686</v>
+        <v>1.020803885879101</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.025908636903494</v>
+        <v>1.046174357948524</v>
       </c>
       <c r="D7">
-        <v>1.042899498581189</v>
+        <v>1.053922718189426</v>
       </c>
       <c r="E7">
-        <v>1.042895146651283</v>
+        <v>1.059467882575839</v>
       </c>
       <c r="F7">
-        <v>1.049802631288362</v>
+        <v>1.066398169357403</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.053137760392606</v>
+        <v>1.043609235254968</v>
       </c>
       <c r="J7">
-        <v>1.044666182783773</v>
+        <v>1.050655740781485</v>
       </c>
       <c r="K7">
-        <v>1.052503494367403</v>
+        <v>1.05636150930977</v>
       </c>
       <c r="L7">
-        <v>1.052499189772577</v>
+        <v>1.061893238827854</v>
       </c>
       <c r="M7">
-        <v>1.059332148325543</v>
+        <v>1.068806945804554</v>
       </c>
       <c r="N7">
-        <v>1.018604790200905</v>
+        <v>1.020751738385618</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.020794198409574</v>
+        <v>1.045062033562394</v>
       </c>
       <c r="D8">
-        <v>1.038959727811112</v>
+        <v>1.053031772804865</v>
       </c>
       <c r="E8">
-        <v>1.038321524636638</v>
+        <v>1.058402828765259</v>
       </c>
       <c r="F8">
-        <v>1.045084060657347</v>
+        <v>1.0652973113336</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.0517014854731</v>
+        <v>1.043354690743699</v>
       </c>
       <c r="J8">
-        <v>1.041815932216212</v>
+        <v>1.050006456701278</v>
       </c>
       <c r="K8">
-        <v>1.049636610038739</v>
+        <v>1.055716530168193</v>
       </c>
       <c r="L8">
-        <v>1.049006269325018</v>
+        <v>1.061073177681434</v>
       </c>
       <c r="M8">
-        <v>1.055686099623952</v>
+        <v>1.067949395154072</v>
       </c>
       <c r="N8">
-        <v>1.017640174321222</v>
+        <v>1.020533709364449</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.011418644826809</v>
+        <v>1.043107649212991</v>
       </c>
       <c r="D9">
-        <v>1.031762247429592</v>
+        <v>1.051466765298701</v>
       </c>
       <c r="E9">
-        <v>1.029980364770612</v>
+        <v>1.056534348408955</v>
       </c>
       <c r="F9">
-        <v>1.036478594700296</v>
+        <v>1.063366037342424</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.04900699999048</v>
+        <v>1.042899814899213</v>
       </c>
       <c r="J9">
-        <v>1.036574526207074</v>
+        <v>1.048862798685203</v>
       </c>
       <c r="K9">
-        <v>1.04436019744344</v>
+        <v>1.054579700470353</v>
       </c>
       <c r="L9">
-        <v>1.04260506223702</v>
+        <v>1.059631364070948</v>
       </c>
       <c r="M9">
-        <v>1.049006312736361</v>
+        <v>1.066441853892058</v>
       </c>
       <c r="N9">
-        <v>1.015865100326564</v>
+        <v>1.020149316317932</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.004900922419345</v>
+        <v>1.041808640325835</v>
       </c>
       <c r="D10">
-        <v>1.026778087422674</v>
+        <v>1.050426864564136</v>
       </c>
       <c r="E10">
-        <v>1.024212876852858</v>
+        <v>1.055294376531469</v>
       </c>
       <c r="F10">
-        <v>1.030528388506908</v>
+        <v>1.06208440675669</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.047094154768401</v>
+        <v>1.042592347410211</v>
       </c>
       <c r="J10">
-        <v>1.032921433944865</v>
+        <v>1.048100748461507</v>
       </c>
       <c r="K10">
-        <v>1.040680120810905</v>
+        <v>1.053821697352177</v>
       </c>
       <c r="L10">
-        <v>1.038158301867709</v>
+        <v>1.058672425947386</v>
       </c>
       <c r="M10">
-        <v>1.044367484909195</v>
+        <v>1.065439326342039</v>
       </c>
       <c r="N10">
-        <v>1.014627283136326</v>
+        <v>1.01989294997852</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>1.00200975380434</v>
+        <v>1.04124710445903</v>
       </c>
       <c r="D11">
-        <v>1.024572413179023</v>
+        <v>1.04997741428895</v>
       </c>
       <c r="E11">
-        <v>1.021662375679492</v>
+        <v>1.054758826818891</v>
       </c>
       <c r="F11">
-        <v>1.027897096179939</v>
+        <v>1.061530867398294</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.046236675920522</v>
+        <v>1.042458219459937</v>
       </c>
       <c r="J11">
-        <v>1.0312991630178</v>
+        <v>1.047770880657274</v>
       </c>
       <c r="K11">
-        <v>1.039045345362512</v>
+        <v>1.053493463085658</v>
       </c>
       <c r="L11">
-        <v>1.036187016085919</v>
+        <v>1.058257753504044</v>
       </c>
       <c r="M11">
-        <v>1.04231141669195</v>
+        <v>1.065005834508116</v>
       </c>
       <c r="N11">
-        <v>1.014077476287713</v>
+        <v>1.019781921875718</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>1.000924985293036</v>
+        <v>1.041038668479695</v>
       </c>
       <c r="D12">
-        <v>1.023745683517204</v>
+        <v>1.049810595540146</v>
       </c>
       <c r="E12">
-        <v>1.020706652336973</v>
+        <v>1.054560107043426</v>
       </c>
       <c r="F12">
-        <v>1.026911100620133</v>
+        <v>1.061325472864701</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.045913640863256</v>
+        <v>1.042408249973556</v>
       </c>
       <c r="J12">
-        <v>1.030690249605346</v>
+        <v>1.047648370143836</v>
       </c>
       <c r="K12">
-        <v>1.038431668177668</v>
+        <v>1.053371541552631</v>
       </c>
       <c r="L12">
-        <v>1.035447614584777</v>
+        <v>1.058103810534324</v>
       </c>
       <c r="M12">
-        <v>1.041540270595632</v>
+        <v>1.064844909541036</v>
       </c>
       <c r="N12">
-        <v>1.013871094304684</v>
+        <v>1.019740678612931</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>1.001158171610847</v>
+        <v>1.041083372186565</v>
       </c>
       <c r="D13">
-        <v>1.023923361824203</v>
+        <v>1.049846372946943</v>
       </c>
       <c r="E13">
-        <v>1.020912042425489</v>
+        <v>1.05460272370058</v>
       </c>
       <c r="F13">
-        <v>1.027122996284014</v>
+        <v>1.061369520944451</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.045983140301344</v>
+        <v>1.042418975301581</v>
       </c>
       <c r="J13">
-        <v>1.030821154230483</v>
+        <v>1.047674648271124</v>
       </c>
       <c r="K13">
-        <v>1.038563599963833</v>
+        <v>1.053397694145407</v>
       </c>
       <c r="L13">
-        <v>1.035606548481072</v>
+        <v>1.058136827959175</v>
       </c>
       <c r="M13">
-        <v>1.041706025410569</v>
+        <v>1.064879424248308</v>
       </c>
       <c r="N13">
-        <v>1.013915463025741</v>
+        <v>1.019749525537235</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>1.001920311034652</v>
+        <v>1.041229872139979</v>
       </c>
       <c r="D14">
-        <v>1.024504229142648</v>
+        <v>1.049963622395707</v>
       </c>
       <c r="E14">
-        <v>1.021583547912906</v>
+        <v>1.054742396341416</v>
       </c>
       <c r="F14">
-        <v>1.027815771531452</v>
+        <v>1.061513885031989</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.046210066984539</v>
+        <v>1.042454091989628</v>
       </c>
       <c r="J14">
-        <v>1.031248960674759</v>
+        <v>1.047760753544108</v>
       </c>
       <c r="K14">
-        <v>1.038994751647445</v>
+        <v>1.05348338502025</v>
       </c>
       <c r="L14">
-        <v>1.036126045129822</v>
+        <v>1.05824502679024</v>
       </c>
       <c r="M14">
-        <v>1.042247826929785</v>
+        <v>1.064992530489176</v>
       </c>
       <c r="N14">
-        <v>1.014060461229386</v>
+        <v>1.019778512742542</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>1.002388435796266</v>
+        <v>1.041320154654601</v>
       </c>
       <c r="D15">
-        <v>1.024861124770476</v>
+        <v>1.05003588054763</v>
       </c>
       <c r="E15">
-        <v>1.021996166257215</v>
+        <v>1.054828480784332</v>
       </c>
       <c r="F15">
-        <v>1.028241459702886</v>
+        <v>1.061602861012015</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.046349279462686</v>
+        <v>1.042475708898057</v>
       </c>
       <c r="J15">
-        <v>1.031511699827642</v>
+        <v>1.047813808146487</v>
       </c>
       <c r="K15">
-        <v>1.039259536270182</v>
+        <v>1.053536181943325</v>
       </c>
       <c r="L15">
-        <v>1.036445163849202</v>
+        <v>1.058311702950723</v>
       </c>
       <c r="M15">
-        <v>1.042580654638319</v>
+        <v>1.06506223137731</v>
       </c>
       <c r="N15">
-        <v>1.014149510744624</v>
+        <v>1.019796372402233</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.005091304964035</v>
+        <v>1.04184592763533</v>
       </c>
       <c r="D16">
-        <v>1.026923444107576</v>
+        <v>1.050456710820182</v>
       </c>
       <c r="E16">
-        <v>1.02438099449743</v>
+        <v>1.055329948155894</v>
       </c>
       <c r="F16">
-        <v>1.030701831783887</v>
+        <v>1.062121173328831</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.047150435610879</v>
+        <v>1.04260122819097</v>
       </c>
       <c r="J16">
-        <v>1.033028225186597</v>
+        <v>1.048122643024336</v>
       </c>
       <c r="K16">
-        <v>1.040787725006163</v>
+        <v>1.05384348100394</v>
       </c>
       <c r="L16">
-        <v>1.038288139587987</v>
+        <v>1.058699958201806</v>
       </c>
       <c r="M16">
-        <v>1.044502914484789</v>
+        <v>1.065468108745658</v>
       </c>
       <c r="N16">
-        <v>1.014663473830384</v>
+        <v>1.019900318173066</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.006767938772907</v>
+        <v>1.042175984940201</v>
       </c>
       <c r="D17">
-        <v>1.028204153480984</v>
+        <v>1.050720911021926</v>
       </c>
       <c r="E17">
-        <v>1.025862452227744</v>
+        <v>1.055644872570716</v>
       </c>
       <c r="F17">
-        <v>1.032230220381194</v>
+        <v>1.062446677252269</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.047645063429675</v>
+        <v>1.042679697913395</v>
       </c>
       <c r="J17">
-        <v>1.03396849670859</v>
+        <v>1.048316396009145</v>
       </c>
       <c r="K17">
-        <v>1.041735095927877</v>
+        <v>1.054036238833697</v>
       </c>
       <c r="L17">
-        <v>1.039431721448265</v>
+        <v>1.058943649933786</v>
       </c>
       <c r="M17">
-        <v>1.045695789733766</v>
+        <v>1.065722869180456</v>
       </c>
       <c r="N17">
-        <v>1.014982111581049</v>
+        <v>1.019965515658104</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.007739273372411</v>
+        <v>1.042368592707966</v>
       </c>
       <c r="D18">
-        <v>1.02894660817801</v>
+        <v>1.050875094836139</v>
       </c>
       <c r="E18">
-        <v>1.026721460171888</v>
+        <v>1.055828694349595</v>
       </c>
       <c r="F18">
-        <v>1.033116441695556</v>
+        <v>1.062636674588914</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.047930763667457</v>
+        <v>1.042725372164882</v>
       </c>
       <c r="J18">
-        <v>1.034513055300067</v>
+        <v>1.048429418887751</v>
       </c>
       <c r="K18">
-        <v>1.042283716050155</v>
+        <v>1.054148669779567</v>
       </c>
       <c r="L18">
-        <v>1.040094354316911</v>
+        <v>1.059085844553117</v>
       </c>
       <c r="M18">
-        <v>1.046387019375113</v>
+        <v>1.065871525299581</v>
       </c>
       <c r="N18">
-        <v>1.015166639596686</v>
+        <v>1.020003542306104</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.00806936564225</v>
+        <v>1.042434282350738</v>
       </c>
       <c r="D19">
-        <v>1.029199001414248</v>
+        <v>1.05092768109722</v>
       </c>
       <c r="E19">
-        <v>1.027013505310496</v>
+        <v>1.055891395103983</v>
       </c>
       <c r="F19">
-        <v>1.033417738985718</v>
+        <v>1.062701481845934</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.048027707981682</v>
+        <v>1.042740929631459</v>
       </c>
       <c r="J19">
-        <v>1.034698083995671</v>
+        <v>1.048467958431935</v>
       </c>
       <c r="K19">
-        <v>1.042470116029141</v>
+        <v>1.054187005541296</v>
       </c>
       <c r="L19">
-        <v>1.040319557553302</v>
+        <v>1.05913433824515</v>
       </c>
       <c r="M19">
-        <v>1.04662194733381</v>
+        <v>1.065922223094719</v>
       </c>
       <c r="N19">
-        <v>1.015229336054715</v>
+        <v>1.02001650806605</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.006588739839785</v>
+        <v>1.042140563497961</v>
       </c>
       <c r="D20">
-        <v>1.028067219464124</v>
+        <v>1.05069255652079</v>
       </c>
       <c r="E20">
-        <v>1.025704036091377</v>
+        <v>1.055611070525347</v>
       </c>
       <c r="F20">
-        <v>1.032066785700494</v>
+        <v>1.062411739638217</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.047592285967795</v>
+        <v>1.042671288759712</v>
       </c>
       <c r="J20">
-        <v>1.033868018179443</v>
+        <v>1.048295607099572</v>
       </c>
       <c r="K20">
-        <v>1.041633863887019</v>
+        <v>1.054015557881294</v>
       </c>
       <c r="L20">
-        <v>1.039309483040857</v>
+        <v>1.058917498586973</v>
       </c>
       <c r="M20">
-        <v>1.045568278737737</v>
+        <v>1.06569552971648</v>
       </c>
       <c r="N20">
-        <v>1.014948062706907</v>
+        <v>1.01995852078231</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>1.001696183920988</v>
+        <v>1.041186727581802</v>
       </c>
       <c r="D21">
-        <v>1.02433338624422</v>
+        <v>1.04992909183207</v>
       </c>
       <c r="E21">
-        <v>1.021386039959565</v>
+        <v>1.054701260493528</v>
       </c>
       <c r="F21">
-        <v>1.027612007513017</v>
+        <v>1.061471367465308</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.046143368939894</v>
+        <v>1.042443755090871</v>
       </c>
       <c r="J21">
-        <v>1.031123159163736</v>
+        <v>1.047735397205451</v>
       </c>
       <c r="K21">
-        <v>1.03886796829747</v>
+        <v>1.053458151201973</v>
       </c>
       <c r="L21">
-        <v>1.035973266928642</v>
+        <v>1.058213162576511</v>
       </c>
       <c r="M21">
-        <v>1.042088487555348</v>
+        <v>1.064959220934082</v>
       </c>
       <c r="N21">
-        <v>1.014017823163349</v>
+        <v>1.019769976797638</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9985569389023948</v>
+        <v>1.040587843843738</v>
       </c>
       <c r="D22">
-        <v>1.021942543184569</v>
+        <v>1.049449807531433</v>
       </c>
       <c r="E22">
-        <v>1.018622614354365</v>
+        <v>1.054130426774923</v>
       </c>
       <c r="F22">
-        <v>1.024761055096126</v>
+        <v>1.060881360943118</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.045206096380829</v>
+        <v>1.042299837439967</v>
       </c>
       <c r="J22">
-        <v>1.029360600173063</v>
+        <v>1.047383270456184</v>
       </c>
       <c r="K22">
-        <v>1.037091496406439</v>
+        <v>1.053107684063878</v>
       </c>
       <c r="L22">
-        <v>1.033833965744231</v>
+        <v>1.057770810213065</v>
       </c>
       <c r="M22">
-        <v>1.039857448190087</v>
+        <v>1.064496814441434</v>
       </c>
       <c r="N22">
-        <v>1.013420407651958</v>
+        <v>1.019651417594574</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>1.000227268269795</v>
+        <v>1.040905244134112</v>
       </c>
       <c r="D23">
-        <v>1.023214179663039</v>
+        <v>1.049703814800251</v>
       </c>
       <c r="E23">
-        <v>1.02009228760621</v>
+        <v>1.054432922131997</v>
       </c>
       <c r="F23">
-        <v>1.026277276641285</v>
+        <v>1.061194016087105</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.04570550287448</v>
+        <v>1.042376212017029</v>
       </c>
       <c r="J23">
-        <v>1.030298537961362</v>
+        <v>1.0475699296459</v>
       </c>
       <c r="K23">
-        <v>1.038036873256317</v>
+        <v>1.053293473189944</v>
       </c>
       <c r="L23">
-        <v>1.034972104708958</v>
+        <v>1.058005262436541</v>
       </c>
       <c r="M23">
-        <v>1.041044361754564</v>
+        <v>1.06474189312131</v>
       </c>
       <c r="N23">
-        <v>1.013738326037727</v>
+        <v>1.019714269245606</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.006669732538297</v>
+        <v>1.042156568642272</v>
       </c>
       <c r="D24">
-        <v>1.028129108126425</v>
+        <v>1.050705368451457</v>
       </c>
       <c r="E24">
-        <v>1.025775633262691</v>
+        <v>1.055626343807994</v>
       </c>
       <c r="F24">
-        <v>1.032140651031494</v>
+        <v>1.062427526020929</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.047616142497802</v>
+        <v>1.04267508879042</v>
       </c>
       <c r="J24">
-        <v>1.033913432092288</v>
+        <v>1.048305000682101</v>
       </c>
       <c r="K24">
-        <v>1.041679618525156</v>
+        <v>1.054024902718093</v>
       </c>
       <c r="L24">
-        <v>1.039364730888876</v>
+        <v>1.058929315090272</v>
       </c>
       <c r="M24">
-        <v>1.04562590952061</v>
+        <v>1.065707883062379</v>
       </c>
       <c r="N24">
-        <v>1.014963452025543</v>
+        <v>1.019961681471654</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.013887800657731</v>
+        <v>1.043612221848007</v>
       </c>
       <c r="D25">
-        <v>1.033654628513636</v>
+        <v>1.051870759261731</v>
       </c>
       <c r="E25">
-        <v>1.032171872708496</v>
+        <v>1.057016402302247</v>
       </c>
       <c r="F25">
-        <v>1.038739539209923</v>
+        <v>1.063864289237525</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.049723625704994</v>
+        <v>1.043018157625038</v>
       </c>
       <c r="J25">
-        <v>1.03795665666314</v>
+        <v>1.049158398856821</v>
       </c>
       <c r="K25">
-        <v>1.045752034945292</v>
+        <v>1.054873624694606</v>
       </c>
       <c r="L25">
-        <v>1.044290477205334</v>
+        <v>1.060003714011975</v>
       </c>
       <c r="M25">
-        <v>1.050764830604976</v>
+        <v>1.066831155985181</v>
       </c>
       <c r="N25">
-        <v>1.016333302088249</v>
+        <v>1.0202487116313</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_159/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_159/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.044776057161285</v>
+        <v>1.019453686358494</v>
       </c>
       <c r="D2">
-        <v>1.052802739134675</v>
+        <v>1.037928657889837</v>
       </c>
       <c r="E2">
-        <v>1.058129198154092</v>
+        <v>1.037125561032306</v>
       </c>
       <c r="F2">
-        <v>1.065014483352743</v>
+        <v>1.043850197048345</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.043288728936267</v>
+        <v>1.051320855086261</v>
       </c>
       <c r="J2">
-        <v>1.049839333033683</v>
+        <v>1.041067711624351</v>
       </c>
       <c r="K2">
-        <v>1.055550463193599</v>
+        <v>1.048883714358044</v>
       </c>
       <c r="L2">
-        <v>1.060862276782518</v>
+        <v>1.048090817510992</v>
       </c>
       <c r="M2">
-        <v>1.067728865395869</v>
+        <v>1.0547306490014</v>
       </c>
       <c r="N2">
-        <v>1.020477565263184</v>
+        <v>1.017386865390749</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.045622705547721</v>
+        <v>1.023391819957314</v>
       </c>
       <c r="D3">
-        <v>1.053480837374018</v>
+        <v>1.040959565446938</v>
       </c>
       <c r="E3">
-        <v>1.058939523776214</v>
+        <v>1.040642326244279</v>
       </c>
       <c r="F3">
-        <v>1.065852047513001</v>
+        <v>1.047478411648129</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.043483400266941</v>
+        <v>1.052434228750301</v>
       </c>
       <c r="J3">
-        <v>1.050333882869711</v>
+        <v>1.043264494842242</v>
       </c>
       <c r="K3">
-        <v>1.056041825576576</v>
+        <v>1.051093870335479</v>
       </c>
       <c r="L3">
-        <v>1.061486583960566</v>
+        <v>1.050780306213912</v>
       </c>
       <c r="M3">
-        <v>1.068381690695944</v>
+        <v>1.057537806561036</v>
       </c>
       <c r="N3">
-        <v>1.020643677651902</v>
+        <v>1.018130484038871</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.046171274775451</v>
+        <v>1.025894677100197</v>
       </c>
       <c r="D4">
-        <v>1.053920248417721</v>
+        <v>1.042888732315083</v>
       </c>
       <c r="E4">
-        <v>1.059464928762126</v>
+        <v>1.042882639516047</v>
       </c>
       <c r="F4">
-        <v>1.066395116232679</v>
+        <v>1.049789727749372</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.043608534210297</v>
+        <v>1.0531338763476</v>
       </c>
       <c r="J4">
-        <v>1.050653942765955</v>
+        <v>1.044658413415882</v>
       </c>
       <c r="K4">
-        <v>1.056359723662849</v>
+        <v>1.052495682394672</v>
       </c>
       <c r="L4">
-        <v>1.061890966326332</v>
+        <v>1.052489655889649</v>
       </c>
       <c r="M4">
-        <v>1.068804569305417</v>
+        <v>1.059322195347051</v>
       </c>
       <c r="N4">
-        <v>1.020751134823777</v>
+        <v>1.018602161587966</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.046402066638906</v>
+        <v>1.026936348170351</v>
       </c>
       <c r="D5">
-        <v>1.05410512730413</v>
+        <v>1.043692293241872</v>
       </c>
       <c r="E5">
-        <v>1.059686063294328</v>
+        <v>1.043816273618192</v>
       </c>
       <c r="F5">
-        <v>1.066623685777905</v>
+        <v>1.050752953014249</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.043660940757386</v>
+        <v>1.053423127658083</v>
       </c>
       <c r="J5">
-        <v>1.050788507367832</v>
+        <v>1.045237990310389</v>
       </c>
       <c r="K5">
-        <v>1.056493355593599</v>
+        <v>1.053078393324452</v>
       </c>
       <c r="L5">
-        <v>1.062061066193609</v>
+        <v>1.053201060863482</v>
       </c>
       <c r="M5">
-        <v>1.068982455236444</v>
+        <v>1.060064890145034</v>
       </c>
       <c r="N5">
-        <v>1.020796302476157</v>
+        <v>1.018798237055623</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.046440827725802</v>
+        <v>1.027110641280327</v>
       </c>
       <c r="D6">
-        <v>1.054136178054469</v>
+        <v>1.043826783043456</v>
       </c>
       <c r="E6">
-        <v>1.059723207610566</v>
+        <v>1.043972561496538</v>
       </c>
       <c r="F6">
-        <v>1.066662079002191</v>
+        <v>1.050914194448455</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.043669728312234</v>
+        <v>1.053471410691037</v>
       </c>
       <c r="J6">
-        <v>1.050811101988973</v>
+        <v>1.045334931735318</v>
       </c>
       <c r="K6">
-        <v>1.056515792214759</v>
+        <v>1.053175850083977</v>
       </c>
       <c r="L6">
-        <v>1.062089632383065</v>
+        <v>1.053320091981037</v>
       </c>
       <c r="M6">
-        <v>1.069012329338639</v>
+        <v>1.060189160108149</v>
       </c>
       <c r="N6">
-        <v>1.020803885879101</v>
+        <v>1.018831030493686</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.046174357948524</v>
+        <v>1.025908636903493</v>
       </c>
       <c r="D7">
-        <v>1.053922718189426</v>
+        <v>1.042899498581188</v>
       </c>
       <c r="E7">
-        <v>1.059467882575839</v>
+        <v>1.042895146651283</v>
       </c>
       <c r="F7">
-        <v>1.066398169357403</v>
+        <v>1.049802631288362</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.043609235254968</v>
+        <v>1.053137760392606</v>
       </c>
       <c r="J7">
-        <v>1.050655740781485</v>
+        <v>1.044666182783772</v>
       </c>
       <c r="K7">
-        <v>1.05636150930977</v>
+        <v>1.052503494367403</v>
       </c>
       <c r="L7">
-        <v>1.061893238827854</v>
+        <v>1.052499189772577</v>
       </c>
       <c r="M7">
-        <v>1.068806945804554</v>
+        <v>1.059332148325543</v>
       </c>
       <c r="N7">
-        <v>1.020751738385618</v>
+        <v>1.018604790200905</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.045062033562394</v>
+        <v>1.020794198409573</v>
       </c>
       <c r="D8">
-        <v>1.053031772804865</v>
+        <v>1.038959727811112</v>
       </c>
       <c r="E8">
-        <v>1.058402828765259</v>
+        <v>1.038321524636638</v>
       </c>
       <c r="F8">
-        <v>1.0652973113336</v>
+        <v>1.045084060657348</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.043354690743699</v>
+        <v>1.0517014854731</v>
       </c>
       <c r="J8">
-        <v>1.050006456701278</v>
+        <v>1.041815932216212</v>
       </c>
       <c r="K8">
-        <v>1.055716530168193</v>
+        <v>1.049636610038739</v>
       </c>
       <c r="L8">
-        <v>1.061073177681434</v>
+        <v>1.049006269325018</v>
       </c>
       <c r="M8">
-        <v>1.067949395154072</v>
+        <v>1.055686099623953</v>
       </c>
       <c r="N8">
-        <v>1.020533709364449</v>
+        <v>1.017640174321222</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.043107649212991</v>
+        <v>1.011418644826809</v>
       </c>
       <c r="D9">
-        <v>1.051466765298701</v>
+        <v>1.031762247429592</v>
       </c>
       <c r="E9">
-        <v>1.056534348408955</v>
+        <v>1.029980364770611</v>
       </c>
       <c r="F9">
-        <v>1.063366037342424</v>
+        <v>1.036478594700295</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.042899814899213</v>
+        <v>1.049006999990479</v>
       </c>
       <c r="J9">
-        <v>1.048862798685203</v>
+        <v>1.036574526207073</v>
       </c>
       <c r="K9">
-        <v>1.054579700470353</v>
+        <v>1.044360197443439</v>
       </c>
       <c r="L9">
-        <v>1.059631364070948</v>
+        <v>1.042605062237019</v>
       </c>
       <c r="M9">
-        <v>1.066441853892058</v>
+        <v>1.04900631273636</v>
       </c>
       <c r="N9">
-        <v>1.020149316317932</v>
+        <v>1.015865100326564</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.041808640325835</v>
+        <v>1.004900922419345</v>
       </c>
       <c r="D10">
-        <v>1.050426864564136</v>
+        <v>1.026778087422674</v>
       </c>
       <c r="E10">
-        <v>1.055294376531469</v>
+        <v>1.024212876852858</v>
       </c>
       <c r="F10">
-        <v>1.06208440675669</v>
+        <v>1.030528388506908</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.042592347410211</v>
+        <v>1.047094154768402</v>
       </c>
       <c r="J10">
-        <v>1.048100748461507</v>
+        <v>1.032921433944865</v>
       </c>
       <c r="K10">
-        <v>1.053821697352177</v>
+        <v>1.040680120810905</v>
       </c>
       <c r="L10">
-        <v>1.058672425947386</v>
+        <v>1.03815830186771</v>
       </c>
       <c r="M10">
-        <v>1.065439326342039</v>
+        <v>1.044367484909196</v>
       </c>
       <c r="N10">
-        <v>1.01989294997852</v>
+        <v>1.014627283136326</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.04124710445903</v>
+        <v>1.002009753804339</v>
       </c>
       <c r="D11">
-        <v>1.04997741428895</v>
+        <v>1.024572413179022</v>
       </c>
       <c r="E11">
-        <v>1.054758826818891</v>
+        <v>1.021662375679491</v>
       </c>
       <c r="F11">
-        <v>1.061530867398294</v>
+        <v>1.027897096179938</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.042458219459937</v>
+        <v>1.046236675920522</v>
       </c>
       <c r="J11">
-        <v>1.047770880657274</v>
+        <v>1.0312991630178</v>
       </c>
       <c r="K11">
-        <v>1.053493463085658</v>
+        <v>1.039045345362511</v>
       </c>
       <c r="L11">
-        <v>1.058257753504044</v>
+        <v>1.036187016085918</v>
       </c>
       <c r="M11">
-        <v>1.065005834508116</v>
+        <v>1.042311416691949</v>
       </c>
       <c r="N11">
-        <v>1.019781921875718</v>
+        <v>1.014077476287713</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.041038668479695</v>
+        <v>1.000924985293035</v>
       </c>
       <c r="D12">
-        <v>1.049810595540146</v>
+        <v>1.023745683517203</v>
       </c>
       <c r="E12">
-        <v>1.054560107043426</v>
+        <v>1.020706652336972</v>
       </c>
       <c r="F12">
-        <v>1.061325472864701</v>
+        <v>1.026911100620132</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.042408249973556</v>
+        <v>1.045913640863255</v>
       </c>
       <c r="J12">
-        <v>1.047648370143836</v>
+        <v>1.030690249605345</v>
       </c>
       <c r="K12">
-        <v>1.053371541552631</v>
+        <v>1.038431668177668</v>
       </c>
       <c r="L12">
-        <v>1.058103810534324</v>
+        <v>1.035447614584776</v>
       </c>
       <c r="M12">
-        <v>1.064844909541036</v>
+        <v>1.041540270595631</v>
       </c>
       <c r="N12">
-        <v>1.019740678612931</v>
+        <v>1.013871094304684</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.041083372186565</v>
+        <v>1.001158171610846</v>
       </c>
       <c r="D13">
-        <v>1.049846372946943</v>
+        <v>1.023923361824203</v>
       </c>
       <c r="E13">
-        <v>1.05460272370058</v>
+        <v>1.020912042425489</v>
       </c>
       <c r="F13">
-        <v>1.061369520944451</v>
+        <v>1.027122996284014</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.042418975301581</v>
+        <v>1.045983140301344</v>
       </c>
       <c r="J13">
-        <v>1.047674648271124</v>
+        <v>1.030821154230483</v>
       </c>
       <c r="K13">
-        <v>1.053397694145407</v>
+        <v>1.038563599963833</v>
       </c>
       <c r="L13">
-        <v>1.058136827959175</v>
+        <v>1.035606548481071</v>
       </c>
       <c r="M13">
-        <v>1.064879424248308</v>
+        <v>1.041706025410569</v>
       </c>
       <c r="N13">
-        <v>1.019749525537235</v>
+        <v>1.013915463025741</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.041229872139979</v>
+        <v>1.001920311034652</v>
       </c>
       <c r="D14">
-        <v>1.049963622395707</v>
+        <v>1.024504229142647</v>
       </c>
       <c r="E14">
-        <v>1.054742396341416</v>
+        <v>1.021583547912906</v>
       </c>
       <c r="F14">
-        <v>1.061513885031989</v>
+        <v>1.027815771531451</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.042454091989628</v>
+        <v>1.046210066984539</v>
       </c>
       <c r="J14">
-        <v>1.047760753544108</v>
+        <v>1.031248960674759</v>
       </c>
       <c r="K14">
-        <v>1.05348338502025</v>
+        <v>1.038994751647445</v>
       </c>
       <c r="L14">
-        <v>1.05824502679024</v>
+        <v>1.036126045129822</v>
       </c>
       <c r="M14">
-        <v>1.064992530489176</v>
+        <v>1.042247826929784</v>
       </c>
       <c r="N14">
-        <v>1.019778512742542</v>
+        <v>1.014060461229386</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.041320154654601</v>
+        <v>1.002388435796266</v>
       </c>
       <c r="D15">
-        <v>1.05003588054763</v>
+        <v>1.024861124770476</v>
       </c>
       <c r="E15">
-        <v>1.054828480784332</v>
+        <v>1.021996166257214</v>
       </c>
       <c r="F15">
-        <v>1.061602861012015</v>
+        <v>1.028241459702885</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.042475708898057</v>
+        <v>1.046349279462687</v>
       </c>
       <c r="J15">
-        <v>1.047813808146487</v>
+        <v>1.031511699827642</v>
       </c>
       <c r="K15">
-        <v>1.053536181943325</v>
+        <v>1.039259536270182</v>
       </c>
       <c r="L15">
-        <v>1.058311702950723</v>
+        <v>1.036445163849202</v>
       </c>
       <c r="M15">
-        <v>1.06506223137731</v>
+        <v>1.042580654638318</v>
       </c>
       <c r="N15">
-        <v>1.019796372402233</v>
+        <v>1.014149510744624</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.04184592763533</v>
+        <v>1.005091304964035</v>
       </c>
       <c r="D16">
-        <v>1.050456710820182</v>
+        <v>1.026923444107575</v>
       </c>
       <c r="E16">
-        <v>1.055329948155894</v>
+        <v>1.02438099449743</v>
       </c>
       <c r="F16">
-        <v>1.062121173328831</v>
+        <v>1.030701831783886</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.04260122819097</v>
+        <v>1.047150435610879</v>
       </c>
       <c r="J16">
-        <v>1.048122643024336</v>
+        <v>1.033028225186597</v>
       </c>
       <c r="K16">
-        <v>1.05384348100394</v>
+        <v>1.040787725006162</v>
       </c>
       <c r="L16">
-        <v>1.058699958201806</v>
+        <v>1.038288139587986</v>
       </c>
       <c r="M16">
-        <v>1.065468108745658</v>
+        <v>1.044502914484788</v>
       </c>
       <c r="N16">
-        <v>1.019900318173066</v>
+        <v>1.014663473830384</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.042175984940201</v>
+        <v>1.006767938772907</v>
       </c>
       <c r="D17">
-        <v>1.050720911021926</v>
+        <v>1.028204153480984</v>
       </c>
       <c r="E17">
-        <v>1.055644872570716</v>
+        <v>1.025862452227744</v>
       </c>
       <c r="F17">
-        <v>1.062446677252269</v>
+        <v>1.032230220381194</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.042679697913395</v>
+        <v>1.047645063429675</v>
       </c>
       <c r="J17">
-        <v>1.048316396009145</v>
+        <v>1.03396849670859</v>
       </c>
       <c r="K17">
-        <v>1.054036238833697</v>
+        <v>1.041735095927877</v>
       </c>
       <c r="L17">
-        <v>1.058943649933786</v>
+        <v>1.039431721448264</v>
       </c>
       <c r="M17">
-        <v>1.065722869180456</v>
+        <v>1.045695789733766</v>
       </c>
       <c r="N17">
-        <v>1.019965515658104</v>
+        <v>1.014982111581049</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.042368592707966</v>
+        <v>1.00773927337241</v>
       </c>
       <c r="D18">
-        <v>1.050875094836139</v>
+        <v>1.028946608178009</v>
       </c>
       <c r="E18">
-        <v>1.055828694349595</v>
+        <v>1.026721460171888</v>
       </c>
       <c r="F18">
-        <v>1.062636674588914</v>
+        <v>1.033116441695556</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.042725372164882</v>
+        <v>1.047930763667457</v>
       </c>
       <c r="J18">
-        <v>1.048429418887751</v>
+        <v>1.034513055300067</v>
       </c>
       <c r="K18">
-        <v>1.054148669779567</v>
+        <v>1.042283716050155</v>
       </c>
       <c r="L18">
-        <v>1.059085844553117</v>
+        <v>1.040094354316911</v>
       </c>
       <c r="M18">
-        <v>1.065871525299581</v>
+        <v>1.046387019375113</v>
       </c>
       <c r="N18">
-        <v>1.020003542306104</v>
+        <v>1.015166639596686</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.042434282350738</v>
+        <v>1.008069365642249</v>
       </c>
       <c r="D19">
-        <v>1.05092768109722</v>
+        <v>1.029199001414248</v>
       </c>
       <c r="E19">
-        <v>1.055891395103983</v>
+        <v>1.027013505310496</v>
       </c>
       <c r="F19">
-        <v>1.062701481845934</v>
+        <v>1.033417738985717</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.042740929631459</v>
+        <v>1.048027707981682</v>
       </c>
       <c r="J19">
-        <v>1.048467958431935</v>
+        <v>1.03469808399567</v>
       </c>
       <c r="K19">
-        <v>1.054187005541296</v>
+        <v>1.04247011602914</v>
       </c>
       <c r="L19">
-        <v>1.05913433824515</v>
+        <v>1.040319557553301</v>
       </c>
       <c r="M19">
-        <v>1.065922223094719</v>
+        <v>1.046621947333809</v>
       </c>
       <c r="N19">
-        <v>1.02001650806605</v>
+        <v>1.015229336054715</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.042140563497961</v>
+        <v>1.006588739839784</v>
       </c>
       <c r="D20">
-        <v>1.05069255652079</v>
+        <v>1.028067219464124</v>
       </c>
       <c r="E20">
-        <v>1.055611070525347</v>
+        <v>1.025704036091377</v>
       </c>
       <c r="F20">
-        <v>1.062411739638217</v>
+        <v>1.032066785700494</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.042671288759712</v>
+        <v>1.047592285967795</v>
       </c>
       <c r="J20">
-        <v>1.048295607099572</v>
+        <v>1.033868018179443</v>
       </c>
       <c r="K20">
-        <v>1.054015557881294</v>
+        <v>1.041633863887019</v>
       </c>
       <c r="L20">
-        <v>1.058917498586973</v>
+        <v>1.039309483040856</v>
       </c>
       <c r="M20">
-        <v>1.06569552971648</v>
+        <v>1.045568278737737</v>
       </c>
       <c r="N20">
-        <v>1.01995852078231</v>
+        <v>1.014948062706906</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.041186727581802</v>
+        <v>1.001696183920989</v>
       </c>
       <c r="D21">
-        <v>1.04992909183207</v>
+        <v>1.02433338624422</v>
       </c>
       <c r="E21">
-        <v>1.054701260493528</v>
+        <v>1.021386039959565</v>
       </c>
       <c r="F21">
-        <v>1.061471367465308</v>
+        <v>1.027612007513017</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.042443755090871</v>
+        <v>1.046143368939894</v>
       </c>
       <c r="J21">
-        <v>1.047735397205451</v>
+        <v>1.031123159163737</v>
       </c>
       <c r="K21">
-        <v>1.053458151201973</v>
+        <v>1.03886796829747</v>
       </c>
       <c r="L21">
-        <v>1.058213162576511</v>
+        <v>1.035973266928642</v>
       </c>
       <c r="M21">
-        <v>1.064959220934082</v>
+        <v>1.042088487555349</v>
       </c>
       <c r="N21">
-        <v>1.019769976797638</v>
+        <v>1.014017823163349</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.040587843843738</v>
+        <v>0.9985569389023946</v>
       </c>
       <c r="D22">
-        <v>1.049449807531433</v>
+        <v>1.021942543184569</v>
       </c>
       <c r="E22">
-        <v>1.054130426774923</v>
+        <v>1.018622614354365</v>
       </c>
       <c r="F22">
-        <v>1.060881360943118</v>
+        <v>1.024761055096125</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.042299837439967</v>
+        <v>1.045206096380829</v>
       </c>
       <c r="J22">
-        <v>1.047383270456184</v>
+        <v>1.029360600173062</v>
       </c>
       <c r="K22">
-        <v>1.053107684063878</v>
+        <v>1.037091496406439</v>
       </c>
       <c r="L22">
-        <v>1.057770810213065</v>
+        <v>1.033833965744231</v>
       </c>
       <c r="M22">
-        <v>1.064496814441434</v>
+        <v>1.039857448190087</v>
       </c>
       <c r="N22">
-        <v>1.019651417594574</v>
+        <v>1.013420407651958</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.040905244134112</v>
+        <v>1.000227268269795</v>
       </c>
       <c r="D23">
-        <v>1.049703814800251</v>
+        <v>1.023214179663038</v>
       </c>
       <c r="E23">
-        <v>1.054432922131997</v>
+        <v>1.020092287606209</v>
       </c>
       <c r="F23">
-        <v>1.061194016087105</v>
+        <v>1.026277276641284</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.042376212017029</v>
+        <v>1.04570550287448</v>
       </c>
       <c r="J23">
-        <v>1.0475699296459</v>
+        <v>1.030298537961362</v>
       </c>
       <c r="K23">
-        <v>1.053293473189944</v>
+        <v>1.038036873256316</v>
       </c>
       <c r="L23">
-        <v>1.058005262436541</v>
+        <v>1.034972104708957</v>
       </c>
       <c r="M23">
-        <v>1.06474189312131</v>
+        <v>1.041044361754564</v>
       </c>
       <c r="N23">
-        <v>1.019714269245606</v>
+        <v>1.013738326037727</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.042156568642272</v>
+        <v>1.006669732538296</v>
       </c>
       <c r="D24">
-        <v>1.050705368451457</v>
+        <v>1.028129108126425</v>
       </c>
       <c r="E24">
-        <v>1.055626343807994</v>
+        <v>1.025775633262691</v>
       </c>
       <c r="F24">
-        <v>1.062427526020929</v>
+        <v>1.032140651031494</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.04267508879042</v>
+        <v>1.047616142497802</v>
       </c>
       <c r="J24">
-        <v>1.048305000682101</v>
+        <v>1.033913432092288</v>
       </c>
       <c r="K24">
-        <v>1.054024902718093</v>
+        <v>1.041679618525156</v>
       </c>
       <c r="L24">
-        <v>1.058929315090272</v>
+        <v>1.039364730888876</v>
       </c>
       <c r="M24">
-        <v>1.065707883062379</v>
+        <v>1.04562590952061</v>
       </c>
       <c r="N24">
-        <v>1.019961681471654</v>
+        <v>1.014963452025543</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.043612221848007</v>
+        <v>1.013887800657731</v>
       </c>
       <c r="D25">
-        <v>1.051870759261731</v>
+        <v>1.033654628513636</v>
       </c>
       <c r="E25">
-        <v>1.057016402302247</v>
+        <v>1.032171872708496</v>
       </c>
       <c r="F25">
-        <v>1.063864289237525</v>
+        <v>1.038739539209923</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.043018157625038</v>
+        <v>1.049723625704994</v>
       </c>
       <c r="J25">
-        <v>1.049158398856821</v>
+        <v>1.03795665666314</v>
       </c>
       <c r="K25">
-        <v>1.054873624694606</v>
+        <v>1.045752034945292</v>
       </c>
       <c r="L25">
-        <v>1.060003714011975</v>
+        <v>1.044290477205334</v>
       </c>
       <c r="M25">
-        <v>1.066831155985181</v>
+        <v>1.050764830604976</v>
       </c>
       <c r="N25">
-        <v>1.0202487116313</v>
+        <v>1.016333302088249</v>
       </c>
     </row>
   </sheetData>
